--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -86,18 +98,6 @@
   </si>
   <si>
     <t>Nrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N2">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P2">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q2">
-        <v>1007.184299493686</v>
+        <v>38.771062840709</v>
       </c>
       <c r="R2">
-        <v>1007.184299493686</v>
+        <v>348.939565566381</v>
       </c>
       <c r="S2">
-        <v>0.2775385937387207</v>
+        <v>0.009259716064892077</v>
       </c>
       <c r="T2">
-        <v>0.2775385937387207</v>
+        <v>0.009259716064892076</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N3">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P3">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q3">
-        <v>392.0485508597866</v>
+        <v>13.894576354402</v>
       </c>
       <c r="R3">
-        <v>392.0485508597866</v>
+        <v>125.051187189618</v>
       </c>
       <c r="S3">
-        <v>0.1080324658929124</v>
+        <v>0.003318449958731465</v>
       </c>
       <c r="T3">
-        <v>0.1080324658929124</v>
+        <v>0.003318449958731464</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H4">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N4">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P4">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q4">
-        <v>536.7177983862396</v>
+        <v>20.068963842947</v>
       </c>
       <c r="R4">
-        <v>536.7177983862396</v>
+        <v>180.620674586523</v>
       </c>
       <c r="S4">
-        <v>0.1478973640410614</v>
+        <v>0.004793082605596072</v>
       </c>
       <c r="T4">
-        <v>0.1478973640410614</v>
+        <v>0.004793082605596072</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H5">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I5">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J5">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N5">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P5">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q5">
-        <v>719.8370556883048</v>
+        <v>25.424495609727</v>
       </c>
       <c r="R5">
-        <v>719.8370556883048</v>
+        <v>228.820460487543</v>
       </c>
       <c r="S5">
-        <v>0.1983575044380501</v>
+        <v>0.006072147451990306</v>
       </c>
       <c r="T5">
-        <v>0.1983575044380501</v>
+        <v>0.006072147451990305</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H6">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I6">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J6">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N6">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P6">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q6">
-        <v>211.4396524685836</v>
+        <v>7.804106319818001</v>
       </c>
       <c r="R6">
-        <v>211.4396524685836</v>
+        <v>70.23695687836201</v>
       </c>
       <c r="S6">
-        <v>0.05826407722621812</v>
+        <v>0.001863859367452488</v>
       </c>
       <c r="T6">
-        <v>0.05826407722621812</v>
+        <v>0.001863859367452488</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H7">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I7">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J7">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.7198624302989</v>
+        <v>16.01808066666667</v>
       </c>
       <c r="N7">
-        <v>15.7198624302989</v>
+        <v>48.054242</v>
       </c>
       <c r="O7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="P7">
-        <v>0.0583418327866933</v>
+        <v>0.05674710297927013</v>
       </c>
       <c r="Q7">
-        <v>177.6433368730094</v>
+        <v>6.374859725639333</v>
       </c>
       <c r="R7">
-        <v>177.6433368730094</v>
+        <v>57.37373753075401</v>
       </c>
       <c r="S7">
-        <v>0.04895120180842129</v>
+        <v>0.00152251155083002</v>
       </c>
       <c r="T7">
-        <v>0.04895120180842129</v>
+        <v>0.00152251155083002</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H8">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I8">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J8">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.1268927317887</v>
+        <v>97.419871</v>
       </c>
       <c r="N8">
-        <v>89.1268927317887</v>
+        <v>292.259613</v>
       </c>
       <c r="O8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="P8">
-        <v>0.3307806474523134</v>
+        <v>0.3451284562056485</v>
       </c>
       <c r="Q8">
-        <v>193.2147880795745</v>
+        <v>1105.610192496159</v>
       </c>
       <c r="R8">
-        <v>193.2147880795745</v>
+        <v>9950.491732465429</v>
       </c>
       <c r="S8">
-        <v>0.05324205371359267</v>
+        <v>0.2640535417619697</v>
       </c>
       <c r="T8">
-        <v>0.05324205371359267</v>
+        <v>0.2640535417619696</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H9">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I9">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J9">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>34.6928254895344</v>
+        <v>34.912838</v>
       </c>
       <c r="N9">
-        <v>34.6928254895344</v>
+        <v>104.738514</v>
       </c>
       <c r="O9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="P9">
-        <v>0.1287570443178402</v>
+        <v>0.123685381195977</v>
       </c>
       <c r="Q9">
-        <v>75.20925188106828</v>
+        <v>396.2229588845094</v>
       </c>
       <c r="R9">
-        <v>75.20925188106828</v>
+        <v>3566.006629960585</v>
       </c>
       <c r="S9">
-        <v>0.02072457842492785</v>
+        <v>0.09463016561438355</v>
       </c>
       <c r="T9">
-        <v>0.02072457842492785</v>
+        <v>0.09463016561438353</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H10">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I10">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J10">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>47.4947729706067</v>
+        <v>50.427193</v>
       </c>
       <c r="N10">
-        <v>47.4947729706067</v>
+        <v>151.281579</v>
       </c>
       <c r="O10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="P10">
-        <v>0.1762694880555904</v>
+        <v>0.1786479400170247</v>
       </c>
       <c r="Q10">
-        <v>102.9621050743784</v>
+        <v>572.2941119453027</v>
       </c>
       <c r="R10">
-        <v>102.9621050743784</v>
+        <v>5150.647007507724</v>
       </c>
       <c r="S10">
-        <v>0.02837212401452898</v>
+        <v>0.136681344125003</v>
       </c>
       <c r="T10">
-        <v>0.02837212401452898</v>
+        <v>0.136681344125003</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H11">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I11">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J11">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>63.699205874188</v>
+        <v>63.884013</v>
       </c>
       <c r="N11">
-        <v>63.699205874188</v>
+        <v>191.652039</v>
       </c>
       <c r="O11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408322</v>
       </c>
       <c r="P11">
-        <v>0.2364097290440706</v>
+        <v>0.2263212890408321</v>
       </c>
       <c r="Q11">
-        <v>138.0910765155475</v>
+        <v>725.0144676372761</v>
       </c>
       <c r="R11">
-        <v>138.0910765155475</v>
+        <v>6525.130208735484</v>
       </c>
       <c r="S11">
-        <v>0.03805222460602045</v>
+        <v>0.1731556377714533</v>
       </c>
       <c r="T11">
-        <v>0.03805222460602045</v>
+        <v>0.1731556377714533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H12">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I12">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J12">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.7105371224388</v>
+        <v>19.609342</v>
       </c>
       <c r="N12">
-        <v>18.7105371224388</v>
+        <v>58.82802600000001</v>
       </c>
       <c r="O12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124746</v>
       </c>
       <c r="P12">
-        <v>0.06944125834349214</v>
+        <v>0.06946983056124745</v>
       </c>
       <c r="Q12">
-        <v>40.56185909954444</v>
+        <v>222.5448274648507</v>
       </c>
       <c r="R12">
-        <v>40.56185909954444</v>
+        <v>2002.903447183656</v>
       </c>
       <c r="S12">
-        <v>0.01117718111727403</v>
+        <v>0.05315051388973555</v>
       </c>
       <c r="T12">
-        <v>0.01117718111727403</v>
+        <v>0.05315051388973555</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H13">
+        <v>34.046756</v>
+      </c>
+      <c r="I13">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J13">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N13">
+        <v>48.054242</v>
+      </c>
+      <c r="O13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P13">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q13">
+        <v>181.7878946821058</v>
+      </c>
+      <c r="R13">
+        <v>1636.091052138952</v>
+      </c>
+      <c r="S13">
+        <v>0.04341651132203064</v>
+      </c>
+      <c r="T13">
+        <v>0.04341651132203064</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.119535</v>
+      </c>
+      <c r="H14">
+        <v>0.358605</v>
+      </c>
+      <c r="I14">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J14">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>97.419871</v>
+      </c>
+      <c r="N14">
+        <v>292.259613</v>
+      </c>
+      <c r="O14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P14">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q14">
+        <v>11.645084279985</v>
+      </c>
+      <c r="R14">
+        <v>104.805758519865</v>
+      </c>
+      <c r="S14">
+        <v>0.002781202424793455</v>
+      </c>
+      <c r="T14">
+        <v>0.002781202424793455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.119535</v>
+      </c>
+      <c r="H15">
+        <v>0.358605</v>
+      </c>
+      <c r="I15">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J15">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>34.912838</v>
+      </c>
+      <c r="N15">
+        <v>104.738514</v>
+      </c>
+      <c r="O15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P15">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q15">
+        <v>4.173306090330001</v>
+      </c>
+      <c r="R15">
+        <v>37.55975481297001</v>
+      </c>
+      <c r="S15">
+        <v>0.0009967131828990112</v>
+      </c>
+      <c r="T15">
+        <v>0.0009967131828990112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.119535</v>
+      </c>
+      <c r="H16">
+        <v>0.358605</v>
+      </c>
+      <c r="I16">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J16">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>50.427193</v>
+      </c>
+      <c r="N16">
+        <v>151.281579</v>
+      </c>
+      <c r="O16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P16">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q16">
+        <v>6.027814515255</v>
+      </c>
+      <c r="R16">
+        <v>54.250330637295</v>
+      </c>
+      <c r="S16">
+        <v>0.001439626536224088</v>
+      </c>
+      <c r="T16">
+        <v>0.001439626536224089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.119535</v>
+      </c>
+      <c r="H17">
+        <v>0.358605</v>
+      </c>
+      <c r="I17">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J17">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>63.884013</v>
+      </c>
+      <c r="N17">
+        <v>191.652039</v>
+      </c>
+      <c r="O17">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P17">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q17">
+        <v>7.636375493955001</v>
+      </c>
+      <c r="R17">
+        <v>68.72737944559501</v>
+      </c>
+      <c r="S17">
+        <v>0.001823800114261459</v>
+      </c>
+      <c r="T17">
+        <v>0.001823800114261459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.119535</v>
+      </c>
+      <c r="H18">
+        <v>0.358605</v>
+      </c>
+      <c r="I18">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J18">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>19.609342</v>
+      </c>
+      <c r="N18">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O18">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P18">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q18">
+        <v>2.34400269597</v>
+      </c>
+      <c r="R18">
+        <v>21.09602426373</v>
+      </c>
+      <c r="S18">
+        <v>0.0005598195620583827</v>
+      </c>
+      <c r="T18">
+        <v>0.0005598195620583827</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.119535</v>
+      </c>
+      <c r="H19">
+        <v>0.358605</v>
+      </c>
+      <c r="I19">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J19">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N19">
+        <v>48.054242</v>
+      </c>
+      <c r="O19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P19">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q19">
+        <v>1.91472127249</v>
+      </c>
+      <c r="R19">
+        <v>17.23249145241</v>
+      </c>
+      <c r="S19">
+        <v>0.0004572940236255342</v>
+      </c>
+      <c r="T19">
+        <v>0.0004572940236255343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H20">
+        <v>1.372081</v>
+      </c>
+      <c r="I20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J20">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>97.419871</v>
+      </c>
+      <c r="N20">
+        <v>292.259613</v>
+      </c>
+      <c r="O20">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P20">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q20">
+        <v>44.55598467385034</v>
+      </c>
+      <c r="R20">
+        <v>401.003862064653</v>
+      </c>
+      <c r="S20">
+        <v>0.01064133239696331</v>
+      </c>
+      <c r="T20">
+        <v>0.01064133239696331</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="H13">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="I13">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="J13">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="N13">
-        <v>15.7198624302989</v>
-      </c>
-      <c r="O13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="P13">
-        <v>0.0583418327866933</v>
-      </c>
-      <c r="Q13">
-        <v>34.07848961200188</v>
-      </c>
-      <c r="R13">
-        <v>34.07848961200188</v>
-      </c>
-      <c r="S13">
-        <v>0.009390630978272009</v>
-      </c>
-      <c r="T13">
-        <v>0.009390630978272009</v>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H21">
+        <v>1.372081</v>
+      </c>
+      <c r="I21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J21">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.912838</v>
+      </c>
+      <c r="N21">
+        <v>104.738514</v>
+      </c>
+      <c r="O21">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P21">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q21">
+        <v>15.96774722529267</v>
+      </c>
+      <c r="R21">
+        <v>143.709725027634</v>
+      </c>
+      <c r="S21">
+        <v>0.003813586594457016</v>
+      </c>
+      <c r="T21">
+        <v>0.003813586594457016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.372081</v>
+      </c>
+      <c r="I22">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J22">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>50.427193</v>
+      </c>
+      <c r="N22">
+        <v>151.281579</v>
+      </c>
+      <c r="O22">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P22">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q22">
+        <v>23.06339779954433</v>
+      </c>
+      <c r="R22">
+        <v>207.570580195899</v>
+      </c>
+      <c r="S22">
+        <v>0.005508245053607405</v>
+      </c>
+      <c r="T22">
+        <v>0.005508245053607406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H23">
+        <v>1.372081</v>
+      </c>
+      <c r="I23">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J23">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>63.884013</v>
+      </c>
+      <c r="N23">
+        <v>191.652039</v>
+      </c>
+      <c r="O23">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P23">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q23">
+        <v>29.218013480351</v>
+      </c>
+      <c r="R23">
+        <v>262.962121323159</v>
+      </c>
+      <c r="S23">
+        <v>0.006978155587836135</v>
+      </c>
+      <c r="T23">
+        <v>0.006978155587836135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H24">
+        <v>1.372081</v>
+      </c>
+      <c r="I24">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J24">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>19.609342</v>
+      </c>
+      <c r="N24">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O24">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P24">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q24">
+        <v>8.968535193567336</v>
+      </c>
+      <c r="R24">
+        <v>80.71681674210602</v>
+      </c>
+      <c r="S24">
+        <v>0.002141960609943051</v>
+      </c>
+      <c r="T24">
+        <v>0.002141960609943051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H25">
+        <v>1.372081</v>
+      </c>
+      <c r="I25">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J25">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N25">
+        <v>48.054242</v>
+      </c>
+      <c r="O25">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P25">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q25">
+        <v>7.326034713066889</v>
+      </c>
+      <c r="R25">
+        <v>65.934312417602</v>
+      </c>
+      <c r="S25">
+        <v>0.001749681240446025</v>
+      </c>
+      <c r="T25">
+        <v>0.001749681240446025</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.391799</v>
+      </c>
+      <c r="I26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J26">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>97.419871</v>
+      </c>
+      <c r="N26">
+        <v>292.259613</v>
+      </c>
+      <c r="O26">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P26">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q26">
+        <v>12.72300267930967</v>
+      </c>
+      <c r="R26">
+        <v>114.507024113787</v>
+      </c>
+      <c r="S26">
+        <v>0.003038642319074332</v>
+      </c>
+      <c r="T26">
+        <v>0.003038642319074331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.391799</v>
+      </c>
+      <c r="I27">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J27">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>34.912838</v>
+      </c>
+      <c r="N27">
+        <v>104.738514</v>
+      </c>
+      <c r="O27">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P27">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q27">
+        <v>4.559605005187334</v>
+      </c>
+      <c r="R27">
+        <v>41.036445046686</v>
+      </c>
+      <c r="S27">
+        <v>0.001088973183158767</v>
+      </c>
+      <c r="T27">
+        <v>0.001088973183158767</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.391799</v>
+      </c>
+      <c r="I28">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J28">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>50.427193</v>
+      </c>
+      <c r="N28">
+        <v>151.281579</v>
+      </c>
+      <c r="O28">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P28">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q28">
+        <v>6.585774596735666</v>
+      </c>
+      <c r="R28">
+        <v>59.271971370621</v>
+      </c>
+      <c r="S28">
+        <v>0.001572884475303082</v>
+      </c>
+      <c r="T28">
+        <v>0.001572884475303082</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.391799</v>
+      </c>
+      <c r="I29">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J29">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>63.884013</v>
+      </c>
+      <c r="N29">
+        <v>191.652039</v>
+      </c>
+      <c r="O29">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P29">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q29">
+        <v>8.343230803129</v>
+      </c>
+      <c r="R29">
+        <v>75.089077228161</v>
+      </c>
+      <c r="S29">
+        <v>0.001992618789385328</v>
+      </c>
+      <c r="T29">
+        <v>0.001992618789385327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.391799</v>
+      </c>
+      <c r="I30">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J30">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>19.609342</v>
+      </c>
+      <c r="N30">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O30">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P30">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q30">
+        <v>2.560973528752667</v>
+      </c>
+      <c r="R30">
+        <v>23.048761758774</v>
+      </c>
+      <c r="S30">
+        <v>0.0006116388354733267</v>
+      </c>
+      <c r="T30">
+        <v>0.0006116388354733265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J31">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N31">
+        <v>48.054242</v>
+      </c>
+      <c r="O31">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P31">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q31">
+        <v>2.091955995706444</v>
+      </c>
+      <c r="R31">
+        <v>18.827603961358</v>
+      </c>
+      <c r="S31">
+        <v>0.0004996230982904886</v>
+      </c>
+      <c r="T31">
+        <v>0.0004996230982904886</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H32">
+        <v>7.137283</v>
+      </c>
+      <c r="I32">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J32">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>97.419871</v>
+      </c>
+      <c r="N32">
+        <v>292.259613</v>
+      </c>
+      <c r="O32">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="P32">
+        <v>0.3451284562056485</v>
+      </c>
+      <c r="Q32">
+        <v>231.7710630501643</v>
+      </c>
+      <c r="R32">
+        <v>2085.939567451479</v>
+      </c>
+      <c r="S32">
+        <v>0.0553540212379557</v>
+      </c>
+      <c r="T32">
+        <v>0.0553540212379557</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H33">
+        <v>7.137283</v>
+      </c>
+      <c r="I33">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J33">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>34.912838</v>
+      </c>
+      <c r="N33">
+        <v>104.738514</v>
+      </c>
+      <c r="O33">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="P33">
+        <v>0.123685381195977</v>
+      </c>
+      <c r="Q33">
+        <v>83.06093504638466</v>
+      </c>
+      <c r="R33">
+        <v>747.548415417462</v>
+      </c>
+      <c r="S33">
+        <v>0.01983749266234716</v>
+      </c>
+      <c r="T33">
+        <v>0.01983749266234716</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H34">
+        <v>7.137283</v>
+      </c>
+      <c r="I34">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J34">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>50.427193</v>
+      </c>
+      <c r="N34">
+        <v>151.281579</v>
+      </c>
+      <c r="O34">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="P34">
+        <v>0.1786479400170247</v>
+      </c>
+      <c r="Q34">
+        <v>119.9710491122063</v>
+      </c>
+      <c r="R34">
+        <v>1079.739442009857</v>
+      </c>
+      <c r="S34">
+        <v>0.02865275722129103</v>
+      </c>
+      <c r="T34">
+        <v>0.02865275722129104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H35">
+        <v>7.137283</v>
+      </c>
+      <c r="I35">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J35">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>63.884013</v>
+      </c>
+      <c r="N35">
+        <v>191.652039</v>
+      </c>
+      <c r="O35">
+        <v>0.2263212890408322</v>
+      </c>
+      <c r="P35">
+        <v>0.2263212890408321</v>
+      </c>
+      <c r="Q35">
+        <v>151.986093318893</v>
+      </c>
+      <c r="R35">
+        <v>1367.874839870037</v>
+      </c>
+      <c r="S35">
+        <v>0.03629892932590557</v>
+      </c>
+      <c r="T35">
+        <v>0.03629892932590557</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H36">
+        <v>7.137283</v>
+      </c>
+      <c r="I36">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J36">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>19.609342</v>
+      </c>
+      <c r="N36">
+        <v>58.82802600000001</v>
+      </c>
+      <c r="O36">
+        <v>0.06946983056124746</v>
+      </c>
+      <c r="P36">
+        <v>0.06946983056124745</v>
+      </c>
+      <c r="Q36">
+        <v>46.65247443259533</v>
+      </c>
+      <c r="R36">
+        <v>419.8722698933581</v>
+      </c>
+      <c r="S36">
+        <v>0.01114203829658466</v>
+      </c>
+      <c r="T36">
+        <v>0.01114203829658465</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H37">
+        <v>7.137283</v>
+      </c>
+      <c r="I37">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J37">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>16.01808066666667</v>
+      </c>
+      <c r="N37">
+        <v>48.054242</v>
+      </c>
+      <c r="O37">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="P37">
+        <v>0.05674710297927013</v>
+      </c>
+      <c r="Q37">
+        <v>38.10852494494289</v>
+      </c>
+      <c r="R37">
+        <v>342.976724504486</v>
+      </c>
+      <c r="S37">
+        <v>0.009101481744047416</v>
+      </c>
+      <c r="T37">
+        <v>0.009101481744047417</v>
       </c>
     </row>
   </sheetData>
